--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>12.72626133333333</v>
+        <v>0.01309533333333333</v>
       </c>
       <c r="H2">
-        <v>38.178784</v>
+        <v>0.039286</v>
       </c>
       <c r="I2">
-        <v>0.08664518826379554</v>
+        <v>9.760639145116089E-05</v>
       </c>
       <c r="J2">
-        <v>0.08664518826379553</v>
+        <v>9.760639145116087E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.027021</v>
+        <v>3.442633333333333</v>
       </c>
       <c r="N2">
-        <v>129.081063</v>
+        <v>10.3279</v>
       </c>
       <c r="O2">
-        <v>0.7775798784610731</v>
+        <v>0.2185778494939793</v>
       </c>
       <c r="P2">
-        <v>0.7775798784610732</v>
+        <v>0.2185778494939793</v>
       </c>
       <c r="Q2">
-        <v>547.5731136408214</v>
+        <v>0.04508243104444445</v>
       </c>
       <c r="R2">
-        <v>4928.158022767392</v>
+        <v>0.4057418794</v>
       </c>
       <c r="S2">
-        <v>0.06737355495939894</v>
+        <v>2.133459514026227E-05</v>
       </c>
       <c r="T2">
-        <v>0.06737355495939894</v>
+        <v>2.133459514026227E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>12.72626133333333</v>
+        <v>0.01309533333333333</v>
       </c>
       <c r="H3">
-        <v>38.178784</v>
+        <v>0.039286</v>
       </c>
       <c r="I3">
-        <v>0.08664518826379554</v>
+        <v>9.760639145116089E-05</v>
       </c>
       <c r="J3">
-        <v>0.08664518826379553</v>
+        <v>9.760639145116087E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.842418</v>
       </c>
       <c r="O3">
-        <v>0.05326642153343597</v>
+        <v>0.1871393710983698</v>
       </c>
       <c r="P3">
-        <v>0.05326642153343598</v>
+        <v>0.1871393710983698</v>
       </c>
       <c r="Q3">
-        <v>37.51030742885689</v>
+        <v>0.03859813706088889</v>
       </c>
       <c r="R3">
-        <v>337.592766859712</v>
+        <v>0.347383233548</v>
       </c>
       <c r="S3">
-        <v>0.004615279121903252</v>
+        <v>1.826599871135155E-05</v>
       </c>
       <c r="T3">
-        <v>0.004615279121903252</v>
+        <v>1.826599871135155E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>12.72626133333333</v>
+        <v>0.01309533333333333</v>
       </c>
       <c r="H4">
-        <v>38.178784</v>
+        <v>0.039286</v>
       </c>
       <c r="I4">
-        <v>0.08664518826379554</v>
+        <v>9.760639145116089E-05</v>
       </c>
       <c r="J4">
-        <v>0.08664518826379553</v>
+        <v>9.760639145116087E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.360041333333333</v>
+        <v>9.360041333333335</v>
       </c>
       <c r="N4">
         <v>28.080124</v>
       </c>
       <c r="O4">
-        <v>0.1691537000054908</v>
+        <v>0.594282779407651</v>
       </c>
       <c r="P4">
-        <v>0.1691537000054908</v>
+        <v>0.5942827794076508</v>
       </c>
       <c r="Q4">
-        <v>119.1183320988018</v>
+        <v>0.1225728612737778</v>
       </c>
       <c r="R4">
-        <v>1072.064988889216</v>
+        <v>1.103155751464</v>
       </c>
       <c r="S4">
-        <v>0.01465635418249335</v>
+        <v>5.800579759954708E-05</v>
       </c>
       <c r="T4">
-        <v>0.01465635418249334</v>
+        <v>5.800579759954706E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>397.545029</v>
       </c>
       <c r="I5">
-        <v>0.9022121783931373</v>
+        <v>0.9877039077543427</v>
       </c>
       <c r="J5">
-        <v>0.9022121783931372</v>
+        <v>0.9877039077543425</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.027021</v>
+        <v>3.442633333333333</v>
       </c>
       <c r="N5">
-        <v>129.081063</v>
+        <v>10.3279</v>
       </c>
       <c r="O5">
-        <v>0.7775798784610731</v>
+        <v>0.2185778494939793</v>
       </c>
       <c r="P5">
-        <v>0.7775798784610732</v>
+        <v>0.2185778494939793</v>
       </c>
       <c r="Q5">
-        <v>5701.726103742869</v>
+        <v>456.2005894454555</v>
       </c>
       <c r="R5">
-        <v>51315.53493368583</v>
+        <v>4105.8053050091</v>
       </c>
       <c r="S5">
-        <v>0.7015420360210357</v>
+        <v>0.215890196093744</v>
       </c>
       <c r="T5">
-        <v>0.7015420360210357</v>
+        <v>0.2158901960937439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>397.545029</v>
       </c>
       <c r="I6">
-        <v>0.9022121783931373</v>
+        <v>0.9877039077543427</v>
       </c>
       <c r="J6">
-        <v>0.9022121783931372</v>
+        <v>0.9877039077543425</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.842418</v>
       </c>
       <c r="O6">
-        <v>0.05326642153343597</v>
+        <v>0.1871393710983698</v>
       </c>
       <c r="P6">
-        <v>0.05326642153343598</v>
+        <v>0.1871393710983698</v>
       </c>
       <c r="Q6">
         <v>390.5843689155691</v>
@@ -818,10 +818,10 @@
         <v>3515.259320240122</v>
       </c>
       <c r="S6">
-        <v>0.04805761420688838</v>
+        <v>0.18483828812855</v>
       </c>
       <c r="T6">
-        <v>0.04805761420688838</v>
+        <v>0.1848382881285499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>397.545029</v>
       </c>
       <c r="I7">
-        <v>0.9022121783931373</v>
+        <v>0.9877039077543427</v>
       </c>
       <c r="J7">
-        <v>0.9022121783931372</v>
+        <v>0.9877039077543425</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.360041333333333</v>
+        <v>9.360041333333335</v>
       </c>
       <c r="N7">
         <v>28.080124</v>
       </c>
       <c r="O7">
-        <v>0.1691537000054908</v>
+        <v>0.594282779407651</v>
       </c>
       <c r="P7">
-        <v>0.1691537000054908</v>
+        <v>0.5942827794076508</v>
       </c>
       <c r="Q7">
         <v>1240.345967767066</v>
@@ -880,10 +880,10 @@
         <v>11163.1137099036</v>
       </c>
       <c r="S7">
-        <v>0.1526125281652131</v>
+        <v>0.5869754235320489</v>
       </c>
       <c r="T7">
-        <v>0.1526125281652131</v>
+        <v>0.5869754235320486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.909819000000001</v>
       </c>
       <c r="I8">
-        <v>0.0111426333430672</v>
+        <v>0.01219848585420627</v>
       </c>
       <c r="J8">
-        <v>0.0111426333430672</v>
+        <v>0.01219848585420626</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.027021</v>
+        <v>3.442633333333333</v>
       </c>
       <c r="N8">
-        <v>129.081063</v>
+        <v>10.3279</v>
       </c>
       <c r="O8">
-        <v>0.7775798784610731</v>
+        <v>0.2185778494939793</v>
       </c>
       <c r="P8">
-        <v>0.7775798784610732</v>
+        <v>0.2185778494939793</v>
       </c>
       <c r="Q8">
-        <v>70.41829507306635</v>
+        <v>5.634235516677778</v>
       </c>
       <c r="R8">
-        <v>633.7646556575971</v>
+        <v>50.7081196501</v>
       </c>
       <c r="S8">
-        <v>0.008664287480638494</v>
+        <v>0.002666318805095133</v>
       </c>
       <c r="T8">
-        <v>0.008664287480638492</v>
+        <v>0.002666318805095132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.909819000000001</v>
       </c>
       <c r="I9">
-        <v>0.0111426333430672</v>
+        <v>0.01219848585420627</v>
       </c>
       <c r="J9">
-        <v>0.0111426333430672</v>
+        <v>0.01219848585420626</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>8.842418</v>
       </c>
       <c r="O9">
-        <v>0.05326642153343597</v>
+        <v>0.1871393710983698</v>
       </c>
       <c r="P9">
-        <v>0.05326642153343598</v>
+        <v>0.1871393710983698</v>
       </c>
       <c r="Q9">
         <v>4.823852433593556</v>
@@ -1004,10 +1004,10 @@
         <v>43.41467190234201</v>
       </c>
       <c r="S9">
-        <v>0.0005935282046443363</v>
+        <v>0.002282816971108521</v>
       </c>
       <c r="T9">
-        <v>0.0005935282046443362</v>
+        <v>0.00228281697110852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.909819000000001</v>
       </c>
       <c r="I10">
-        <v>0.0111426333430672</v>
+        <v>0.01219848585420627</v>
       </c>
       <c r="J10">
-        <v>0.0111426333430672</v>
+        <v>0.01219848585420626</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.360041333333333</v>
+        <v>9.360041333333335</v>
       </c>
       <c r="N10">
         <v>28.080124</v>
       </c>
       <c r="O10">
-        <v>0.1691537000054908</v>
+        <v>0.594282779407651</v>
       </c>
       <c r="P10">
-        <v>0.1691537000054908</v>
+        <v>0.5942827794076508</v>
       </c>
       <c r="Q10">
-        <v>15.31870292639511</v>
+        <v>15.31870292639512</v>
       </c>
       <c r="R10">
         <v>137.868326337556</v>
       </c>
       <c r="S10">
-        <v>0.001884817657784368</v>
+        <v>0.007249350078002614</v>
       </c>
       <c r="T10">
-        <v>0.001884817657784368</v>
+        <v>0.00724935007800261</v>
       </c>
     </row>
   </sheetData>
